--- a/migforecasting/cities15-16/2/d6.xlsx
+++ b/migforecasting/cities15-16/2/d6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities15-16\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -751,7 +751,7 @@
 10) . – данные приведены по виду экономической деятельности «Производство и распределение электроэнергии, газа и воды».</t>
   </si>
   <si>
-    <t>Новгород</t>
+    <t>Великий Новгород</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
